--- a/python/lin/main Error t1=6 t2=3.xlsx
+++ b/python/lin/main Error t1=6 t2=3.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.296</v>
+      </c>
+      <c r="G2" t="n">
         <v>5.99</v>
       </c>
-      <c r="D2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.03</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.496</v>
+        <v>-0.102</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.73</v>
+        <v>-2.07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.92</v>
+        <v>3.09</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.83</v>
+        <v>3.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.1</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000102</v>
+        <v>9.99e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66</v>
+        <v>-0.108</v>
       </c>
       <c r="E4" t="n">
-        <v>9.97e-05</v>
+        <v>9.99e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.31</v>
+        <v>-0.08450000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.0001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.123</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="5">
@@ -573,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.31e-05</v>
+        <v>-1.11e-14</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.55e-13</v>
+        <v>-4e-13</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>437000</v>
+        <v>3150</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>316000</v>
+        <v>9450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>136000</v>
+        <v>15400</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2230</v>
+        <v>16.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1610</v>
+        <v>48.2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>696</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
